--- a/flujo 2/Flujo2.xlsx
+++ b/flujo 2/Flujo2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\09384038\Documents\GitHub\PepsiCoTestAutomation\flujo 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A0A987-94BA-4959-ADFC-98D5FC0C670C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F8F9D7-B828-4E6D-913B-A955672D8D41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27630" yWindow="-3525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="58">
   <si>
     <t>S. No</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>The time shown for each open Downtime must be less than 8 hours.</t>
+  </si>
+  <si>
+    <t>otro que diga click en cronologhical events</t>
   </si>
 </sst>
 </file>
@@ -299,7 +302,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,12 +323,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="62"/>
-        <bgColor indexed="56"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,6 +330,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="56"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="56"/>
       </patternFill>
     </fill>
@@ -422,7 +437,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -449,24 +464,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -475,36 +478,72 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -818,11 +857,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S10"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -900,427 +939,401 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="28" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20">
+    <row r="2" spans="1:19" s="24" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="16" t="s">
+      <c r="M2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="27"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="23"/>
     </row>
-    <row r="3" spans="1:19" s="28" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20">
+    <row r="3" spans="1:19" s="24" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="15" t="s">
+      <c r="K3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="L3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="16" t="s">
+      <c r="M3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="N3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="27"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="23"/>
     </row>
-    <row r="4" spans="1:19" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9">
+    <row r="4" spans="1:19" s="37" customFormat="1" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="8"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="36"/>
     </row>
-    <row r="5" spans="1:19" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+    <row r="5" spans="1:19" s="37" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="N5" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="8"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="36"/>
     </row>
-    <row r="6" spans="1:19" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9">
+    <row r="6" spans="1:19" s="37" customFormat="1" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="27">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="39" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="N6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="8"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="36"/>
     </row>
-    <row r="7" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="7" spans="1:19" s="37" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="L7" s="15" t="s">
+      <c r="L7" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="M7" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="8"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="33"/>
+      <c r="S7" s="36"/>
     </row>
-    <row r="8" spans="1:19" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9">
+    <row r="8" spans="1:19" s="37" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="30" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="17" t="s">
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="8"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="R8" s="33"/>
+      <c r="S8" s="36"/>
     </row>
-    <row r="9" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9">
+    <row r="9" spans="1:19" s="37" customFormat="1" ht="91.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="36"/>
+    </row>
+    <row r="10" spans="1:19" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9">
         <v>8</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="N9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9">
-        <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="E10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="J10" s="15" t="s">
+      <c r="J10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="15" t="s">
+      <c r="K10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L10" s="15" t="s">
+      <c r="L10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="M10" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="13" t="s">
         <v>30</v>
       </c>
       <c r="O10" s="7"/>
@@ -1329,9 +1342,58 @@
       <c r="R10" s="7"/>
       <c r="S10" s="8"/>
     </row>
+    <row r="11" spans="1:19" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="8"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:S1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
-  <conditionalFormatting sqref="N1:N10">
+  <conditionalFormatting sqref="N1:N11">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
@@ -1350,7 +1412,7 @@
           <x14:formula1>
             <xm:f>'C:\Users\LENOVO S340\Documents\Nancy Pepsico\Flujos\[gSFT Master Test cases UAT F1.xlsx]dropdown'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>N2:N10</xm:sqref>
+          <xm:sqref>N2:N11</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
